--- a/biology/Histoire de la zoologie et de la botanique/Getulio_Agostini/Getulio_Agostini.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Getulio_Agostini/Getulio_Agostini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Getulio Agostini est un botaniste et professeur vénézuélien[1], né à Cantaura en 1943 et mort à Caracas en 1990[2]. Il est un spécialiste de la famille des Myrsinaceae.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Getulio Agostini est un botaniste et professeur vénézuélien, né à Cantaura en 1943 et mort à Caracas en 1990. Il est un spécialiste de la famille des Myrsinaceae.
 </t>
         </is>
       </c>
@@ -513,24 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1966
-Steyermark, J.A. y Agostini, G. 1966: Exploración botánica del Cerro Patao y zonas adyacentes a Puerto Hierro, en la Península de Paria, Edo. Sucre. Acta Botanica Venezuelica 1:27–80.
-1970
-Agostini, G. 1970: Notes on Myrsinaceae. I. Generic assignment of Conomorpha sodiroana Mez, Ardisia ambigua Mart., and related species. Phytologia 20:401-403.
-1971
-Agostini, G. 1971: A revision of the genus Cybianthus section Conomorpha (Myrsinaceae). Tesis Ph.D., The City University of New York.
-1973
-Agostini, G. 1973: A new Venezuelan species of Cordia sect. Gerascanthus (Boraginaceae). Brittonia 25(2):174-176.
-Agostini, G. 1973: Identity of Perrottetia costaricensis Lundell and Perrottetia racemosa Standley. Phytologia. 26(3):174.
-Agostini, G. 1973: Piperaceae. Instituto Pedagógico, Departmento de Cultura y Publicaciones. Caracas 15 p.
-1974
-Agostini, G. 1974: El género Eichhornia (Pontederiaceae) en Venezuela. Acta Botanica Venezuelica  9(1–4):303–310.
-Agostini, G. 1974: El género Heteranthera (Pontederiaceae) en Venezuela. Acta Botanica Venezuelica 9(1–4): 295–301.
-Agostini, G. y Blanco, 1974: C. Colección de muestras botánicas. Acta Botanica Venezuelica 9(1–4):133–139
-1979
-Agostini, G. 1979: Cordia umbellifera, una nueva especie Venezolana de la sección Gerascanthus (Cordia, Boraginaceae). Acta Botanica Venezuelica 9(1-4):292.
-1980
-Agostini, G. 1980: Una nueva clasificación del género Cybianthus (Myrsinaceae). Acta Botanica Venezuelica. 10:129–185.</t>
+          <t>1966</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Steyermark, J.A. y Agostini, G. 1966: Exploración botánica del Cerro Patao y zonas adyacentes a Puerto Hierro, en la Península de Paria, Edo. Sucre. Acta Botanica Venezuelica 1:27–80.</t>
         </is>
       </c>
     </row>
@@ -555,111 +556,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Espèces décrites</t>
+          <t>Publications</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Aeschynomene carichanica (Rudd) G.B.Rodr. &amp; G.Agostini, 1991[3]
-Aeschynomene venezolana (Rudd) G.B. Rodr. &amp; G.Agostini, 1991[3]
-Brownea gladysrojasiae D. Velásquez &amp; G.Agostini, 1981[3]
-Brownea tillettiana D. Velásquez &amp; G.Agostini, 1981[3]
-Conomorpha steyermarkiana G.Agostini, 1967[3]
-Cordia aristeguietae G.Agostini, 1978[3]
-Cordia lasseri G.Agostini ex Gaviria, 1987[3]
-Cordia thaisiana G.Agostini, 1973[3]
-Cordia umbellifera G.Agostini, 1979[3]
-Cordia williamsii G.Agostini ex Gaviria, 1987[3]
-Cybianthus albiflorus (A.C. Sm.) G.Agostini, 1980[3]
-Cybianthus amplus (Mez) G.Agostini, 1980[3]
-Cybianthus antillanus (Mez) G.Agostini, 1980[3]
-Cybianthus apiculatus (Steyerm.) G.Agostini, 1980[3]
-Cybianthus bahiensis G.Agostini, 1980[3]
-Cybianthus barrosoanus G.Agostini, 1980[3]
-Cybianthus blanchetii (A. DC.) G.Agostini, 1980[3]
-Cybianthus bogotensis (Mez) G.Agostini, 1980[3]
-Cybianthus brasiliensis (Mez) G.Agostini, 1980[3]
-Cybianthus breweri G.Agostini, 1980[3]
-Cybianthus buchtienii  (Pax) G.Agostini, 1980[3]
-Cybianthus caracasanus  (Mez) G.Agostini, 1980[3]
-Cybianthus cardonae  G.Agostini, 1976[3]
-Cybianthus chamaephyta  (Diels) G.Agostini, 1980
-Cybianthus crotonoides (M.R. Schomb. ex Mez) G.Agostini, 1980[3]
-Cybianthus dubius (J.F. Macbr.) G.Agostini, 1980[3]
-Cybianthus duidae (Gleason &amp; Moldenke) G.Agostini, 1980[3]
-Cybianthus dussii (Mez) G.Agostini, 1980[3]
-Cybianthus frigidicola (Steyerm.) G.Agostini, 1980[3]
-Cybianthus frigidicolus (Steyerm.) G.Agostini, 1980[3]
-Cybianthus fulvopulverulentus (Mez) G.Agostini, 1980[3]
-Cybianthus gardneri (A. DC.) G.Agostini, 1980[3]
-Cybianthus glaber (Mez) G.Agostini, 1980[3]
-Cybianthus glabrus (Mez) G.Agostini, 1980[3]
-Cybianthus glomerulatus (A.C. Sm.) G.Agostini, 1980[3]
-Cybianthus goudotianus (Mez) G.Agostini, 1980[3]
-Cybianthus grandifolius (Mez) G.Agostini, 1980[3]
-Cybianthus hoehnei (Mansf.) G.Agostini, 1980[3]
-Cybianthus humilis (Mez) G.Agostini, 1980[3]
-Cybianthus iteoides (Benth.) G.Agostini, 1980[3]
-Cybianthus jajiensis (Steyerm.) G.Agostini, 1980[3]
-Cybianthus laetus (Mez) G.Agostini, 1980[3]
-Cybianthus larensis (Steyerm.) G.Agostini, 1980[3]
-Cybianthus laurifolius (Mez) G.Agostini, 1980[3]
-Cybianthus lawrancei (Moldenke) G.Agostini, 1980[3]
-Cybianthus lepidotus (Gleason) G.Agostini, 1980[3]
-Cybianthus leprieurii G.Agostini, 1980[3]
-Cybianthus lithophytus (R.E. Schultes) G.Agostini, 1980[3]
-Cybianthus magnoliifolius (Mez) G.Agostini, 1980[3]
-Cybianthus maguirei G.Agostini ex Pipoly, 1980[3]
-Cybianthus montanus (Lundell) G.Agostini, 1980[3]
-Cybianthus morii G.Agostini, 1980[3]
-Cybianthus multiflorus (A.C. Sm.) G.Agostini, 1980[3]
-Cybianthus nanayensis (J.F. Macbr.) G.Agostini, 1980[3]
-Cybianthus nemoralis (Mart.) G.Agostini, 1980[3]
-Cybianthus nevadensis (Mez) G.Agostini, 1980[3]
-Cybianthus oblongifolius (A. DC.) G.Agostini, 1980[3]
-Cybianthus occigranatensis (Cuatrec.) G.Agostini, 1980[3]
-Cybianthus panamensis (Standl.) G.Agostini, 1980[3]
-Cybianthus pastensis (Mez) G.Agostini, 1980[3]
-Cybianthus perseoides (Mez) G.Agostini, 1980[3]
-Cybianthus potiaei (Mez) G.Agostini, 1980[3]
-Cybianthus pseudoicacoreus (Mez) G.Agostini, 1980[3]
-Cybianthus punctatus (Mez) G.Agostini, 1980[3]
-Cybianthus quelchii (N.E. Br.) G.Agostini, 1980[3]
-Cybianthus reticulatus (Benth. ex Miq.) G.Agostini, 1980[3]
-Cybianthus roraimae (Steyerm.) G.Agostini, 1980[3]
-Cybianthus rostratus (Hassk.) G.Agostini, 1980[3]
-Cybianthus rufus (Lundell) G.Agostini, 1980[3]
-Cybianthus schlimii (Hook. f.) G.Agostini, 1980[3]
-Cybianthus schomburgkiana (Mez) G.Agostini, 1980[3]
-Cybianthus schomburgkianus G.Agostini, 1980[3]
-Cybianthus silvestris (J.F. Macbr.) G.Agostini, 1980[3]
-Cybianthus simplex (Hook. f.) G.Agostini, 1980[3]
-Cybianthus sintenisii (Urb.) G.Agostini, 1980[3]
-Cybianthus sipapoensis Pipoly &amp; G.Agostini, 1988[3]
-Cybianthus sodiroanus (Mez) G.Agostini, 1980[3]
-Cybianthus spathulifolius G.Agostini ex Pipoly, 1992[3]
-Cybianthus spectabilis (Standl.) G.Agostini, 1980[3]
-Cybianthus spicatus (Kunth) G.Agostini, 1980[3]
-Cybianthus sprucei (Hook. f.) G.Agostini, 1980[3]
-Cybianthus stapfii (Mez) G.Agostini, 1980[3]
-Cybianthus steyermarkianus (G.Agostini) G.Agostini, 1980[3]
-Cybianthus sulcatus (Steyerm.) G.Agostini, 1980[3]
-Cybianthus surinamensis (Spreng.) G.Agostini, 1980[3]
-Cybianthus sylvaticus (Gleason) G.Agostini, 1980[3]
-Cybianthus tamanus (Steyerm.) G.Agostini, 1980[3]
-Cybianthus verticillatus (Vell.) G.Agostini, 1980[3]
-Cybianthus verticilloides (Cuatrec.) G.Agostini, 1980[3]
-Cybianthus wurdackii G.Agostini ex Pipoly, 1992[3]
-Geissanthus ambigua (Mart.) G.Agostini, 1970[3]
-Geissanthus ambiguus (Mart.) G.Agostini, 1970[3]
-Geissanthus longistylus (Cuatrec.) G.Agostini, 1970[3]
-Geissanthus mezianus G. Agostini, 1970[3]
-Geissanthus myrianthus (Mansf.) G.Agostini, 1970[3]
-Geissanthus pyramidatus (Mez) G.Agostini, 1970[3]
-Grammadenia ptariensis subsp. auyantepuiensis G.Agostini, 1967[3]
-Pontederia triflora (Seub.) G.Agostini, D. Velásquez &amp; Velásquez, 1984[3]
-Renealmia silvicola (Britton) Steyerm. &amp; G.Agostini, 1966[3]
-Sagittaria planitiana G.Agostini, 1970[3]</t>
+          <t>1970</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Agostini, G. 1970: Notes on Myrsinaceae. I. Generic assignment of Conomorpha sodiroana Mez, Ardisia ambigua Mart., and related species. Phytologia 20:401-403.</t>
         </is>
       </c>
     </row>
@@ -684,12 +592,329 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1971</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Agostini, G. 1971: A revision of the genus Cybianthus section Conomorpha (Myrsinaceae). Tesis Ph.D., The City University of New York.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Getulio_Agostini</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Getulio_Agostini</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1973</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Agostini, G. 1973: A new Venezuelan species of Cordia sect. Gerascanthus (Boraginaceae). Brittonia 25(2):174-176.
+Agostini, G. 1973: Identity of Perrottetia costaricensis Lundell and Perrottetia racemosa Standley. Phytologia. 26(3):174.
+Agostini, G. 1973: Piperaceae. Instituto Pedagógico, Departmento de Cultura y Publicaciones. Caracas 15 p.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Getulio_Agostini</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Getulio_Agostini</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1974</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Agostini, G. 1974: El género Eichhornia (Pontederiaceae) en Venezuela. Acta Botanica Venezuelica  9(1–4):303–310.
+Agostini, G. 1974: El género Heteranthera (Pontederiaceae) en Venezuela. Acta Botanica Venezuelica 9(1–4): 295–301.
+Agostini, G. y Blanco, 1974: C. Colección de muestras botánicas. Acta Botanica Venezuelica 9(1–4):133–139</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Getulio_Agostini</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Getulio_Agostini</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1979</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Agostini, G. 1979: Cordia umbellifera, una nueva especie Venezolana de la sección Gerascanthus (Cordia, Boraginaceae). Acta Botanica Venezuelica 9(1-4):292.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Getulio_Agostini</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Getulio_Agostini</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Agostini, G. 1980: Una nueva clasificación del género Cybianthus (Myrsinaceae). Acta Botanica Venezuelica. 10:129–185.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Getulio_Agostini</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Getulio_Agostini</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Espèces décrites</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Aeschynomene carichanica (Rudd) G.B.Rodr. &amp; G.Agostini, 1991
+Aeschynomene venezolana (Rudd) G.B. Rodr. &amp; G.Agostini, 1991
+Brownea gladysrojasiae D. Velásquez &amp; G.Agostini, 1981
+Brownea tillettiana D. Velásquez &amp; G.Agostini, 1981
+Conomorpha steyermarkiana G.Agostini, 1967
+Cordia aristeguietae G.Agostini, 1978
+Cordia lasseri G.Agostini ex Gaviria, 1987
+Cordia thaisiana G.Agostini, 1973
+Cordia umbellifera G.Agostini, 1979
+Cordia williamsii G.Agostini ex Gaviria, 1987
+Cybianthus albiflorus (A.C. Sm.) G.Agostini, 1980
+Cybianthus amplus (Mez) G.Agostini, 1980
+Cybianthus antillanus (Mez) G.Agostini, 1980
+Cybianthus apiculatus (Steyerm.) G.Agostini, 1980
+Cybianthus bahiensis G.Agostini, 1980
+Cybianthus barrosoanus G.Agostini, 1980
+Cybianthus blanchetii (A. DC.) G.Agostini, 1980
+Cybianthus bogotensis (Mez) G.Agostini, 1980
+Cybianthus brasiliensis (Mez) G.Agostini, 1980
+Cybianthus breweri G.Agostini, 1980
+Cybianthus buchtienii  (Pax) G.Agostini, 1980
+Cybianthus caracasanus  (Mez) G.Agostini, 1980
+Cybianthus cardonae  G.Agostini, 1976
+Cybianthus chamaephyta  (Diels) G.Agostini, 1980
+Cybianthus crotonoides (M.R. Schomb. ex Mez) G.Agostini, 1980
+Cybianthus dubius (J.F. Macbr.) G.Agostini, 1980
+Cybianthus duidae (Gleason &amp; Moldenke) G.Agostini, 1980
+Cybianthus dussii (Mez) G.Agostini, 1980
+Cybianthus frigidicola (Steyerm.) G.Agostini, 1980
+Cybianthus frigidicolus (Steyerm.) G.Agostini, 1980
+Cybianthus fulvopulverulentus (Mez) G.Agostini, 1980
+Cybianthus gardneri (A. DC.) G.Agostini, 1980
+Cybianthus glaber (Mez) G.Agostini, 1980
+Cybianthus glabrus (Mez) G.Agostini, 1980
+Cybianthus glomerulatus (A.C. Sm.) G.Agostini, 1980
+Cybianthus goudotianus (Mez) G.Agostini, 1980
+Cybianthus grandifolius (Mez) G.Agostini, 1980
+Cybianthus hoehnei (Mansf.) G.Agostini, 1980
+Cybianthus humilis (Mez) G.Agostini, 1980
+Cybianthus iteoides (Benth.) G.Agostini, 1980
+Cybianthus jajiensis (Steyerm.) G.Agostini, 1980
+Cybianthus laetus (Mez) G.Agostini, 1980
+Cybianthus larensis (Steyerm.) G.Agostini, 1980
+Cybianthus laurifolius (Mez) G.Agostini, 1980
+Cybianthus lawrancei (Moldenke) G.Agostini, 1980
+Cybianthus lepidotus (Gleason) G.Agostini, 1980
+Cybianthus leprieurii G.Agostini, 1980
+Cybianthus lithophytus (R.E. Schultes) G.Agostini, 1980
+Cybianthus magnoliifolius (Mez) G.Agostini, 1980
+Cybianthus maguirei G.Agostini ex Pipoly, 1980
+Cybianthus montanus (Lundell) G.Agostini, 1980
+Cybianthus morii G.Agostini, 1980
+Cybianthus multiflorus (A.C. Sm.) G.Agostini, 1980
+Cybianthus nanayensis (J.F. Macbr.) G.Agostini, 1980
+Cybianthus nemoralis (Mart.) G.Agostini, 1980
+Cybianthus nevadensis (Mez) G.Agostini, 1980
+Cybianthus oblongifolius (A. DC.) G.Agostini, 1980
+Cybianthus occigranatensis (Cuatrec.) G.Agostini, 1980
+Cybianthus panamensis (Standl.) G.Agostini, 1980
+Cybianthus pastensis (Mez) G.Agostini, 1980
+Cybianthus perseoides (Mez) G.Agostini, 1980
+Cybianthus potiaei (Mez) G.Agostini, 1980
+Cybianthus pseudoicacoreus (Mez) G.Agostini, 1980
+Cybianthus punctatus (Mez) G.Agostini, 1980
+Cybianthus quelchii (N.E. Br.) G.Agostini, 1980
+Cybianthus reticulatus (Benth. ex Miq.) G.Agostini, 1980
+Cybianthus roraimae (Steyerm.) G.Agostini, 1980
+Cybianthus rostratus (Hassk.) G.Agostini, 1980
+Cybianthus rufus (Lundell) G.Agostini, 1980
+Cybianthus schlimii (Hook. f.) G.Agostini, 1980
+Cybianthus schomburgkiana (Mez) G.Agostini, 1980
+Cybianthus schomburgkianus G.Agostini, 1980
+Cybianthus silvestris (J.F. Macbr.) G.Agostini, 1980
+Cybianthus simplex (Hook. f.) G.Agostini, 1980
+Cybianthus sintenisii (Urb.) G.Agostini, 1980
+Cybianthus sipapoensis Pipoly &amp; G.Agostini, 1988
+Cybianthus sodiroanus (Mez) G.Agostini, 1980
+Cybianthus spathulifolius G.Agostini ex Pipoly, 1992
+Cybianthus spectabilis (Standl.) G.Agostini, 1980
+Cybianthus spicatus (Kunth) G.Agostini, 1980
+Cybianthus sprucei (Hook. f.) G.Agostini, 1980
+Cybianthus stapfii (Mez) G.Agostini, 1980
+Cybianthus steyermarkianus (G.Agostini) G.Agostini, 1980
+Cybianthus sulcatus (Steyerm.) G.Agostini, 1980
+Cybianthus surinamensis (Spreng.) G.Agostini, 1980
+Cybianthus sylvaticus (Gleason) G.Agostini, 1980
+Cybianthus tamanus (Steyerm.) G.Agostini, 1980
+Cybianthus verticillatus (Vell.) G.Agostini, 1980
+Cybianthus verticilloides (Cuatrec.) G.Agostini, 1980
+Cybianthus wurdackii G.Agostini ex Pipoly, 1992
+Geissanthus ambigua (Mart.) G.Agostini, 1970
+Geissanthus ambiguus (Mart.) G.Agostini, 1970
+Geissanthus longistylus (Cuatrec.) G.Agostini, 1970
+Geissanthus mezianus G. Agostini, 1970
+Geissanthus myrianthus (Mansf.) G.Agostini, 1970
+Geissanthus pyramidatus (Mez) G.Agostini, 1970
+Grammadenia ptariensis subsp. auyantepuiensis G.Agostini, 1967
+Pontederia triflora (Seub.) G.Agostini, D. Velásquez &amp; Velásquez, 1984
+Renealmia silvicola (Britton) Steyerm. &amp; G.Agostini, 1966
+Sagittaria planitiana G.Agostini, 1970</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Getulio_Agostini</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Getulio_Agostini</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a été secrétaire de l'Association "pour la promotion de la recherche de l'Université du Venezuela, de 1983 à 1985[4].
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a été secrétaire de l'Association "pour la promotion de la recherche de l'Université du Venezuela, de 1983 à 1985.
 </t>
         </is>
       </c>
